--- a/Testning/Allt i ett Sammanställning.xlsx
+++ b/Testning/Allt i ett Sammanställning.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>Vet ej</t>
   </si>
@@ -90,16 +90,58 @@
     <t>ANTAL</t>
   </si>
   <si>
-    <t>Bandpassfilter RÄTT</t>
+    <t>Slagljud test 2 med filter</t>
   </si>
   <si>
-    <t>Bandpassfilter FEL</t>
+    <t>För test 1</t>
   </si>
   <si>
-    <t>4 bandpassfilter RÄTT</t>
+    <t>ej placerbar</t>
   </si>
   <si>
-    <t>4 bandpassfilter FEL</t>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>200-400 Hz</t>
+  </si>
+  <si>
+    <t>400-800 Hz</t>
+  </si>
+  <si>
+    <t>800-1600 Hz</t>
+  </si>
+  <si>
+    <t>1600-3200 Hz</t>
+  </si>
+  <si>
+    <t>3200-6400 Hz</t>
+  </si>
+  <si>
+    <t>6400-12800 Hz</t>
+  </si>
+  <si>
+    <t>500-1000 Hz</t>
+  </si>
+  <si>
+    <t>1000-2000 Hz</t>
+  </si>
+  <si>
+    <t>2000-4000 Hz</t>
+  </si>
+  <si>
+    <t>4000-8000 Hz</t>
+  </si>
+  <si>
+    <t>500-4000 Hz</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Bandpass</t>
+  </si>
+  <si>
+    <t>4 bandpassfilter</t>
   </si>
   <si>
     <t>A</t>
@@ -114,26 +156,23 @@
     <t>D</t>
   </si>
   <si>
-    <t>ABC</t>
+    <t>4 Bandpassfilter</t>
   </si>
   <si>
-    <t>Slagljud test 2 med filter</t>
+    <t>Ett Bandpassfilter/Bandspärrfilter</t>
   </si>
   <si>
-    <t>För test 1</t>
+    <t>bandspärr</t>
   </si>
   <si>
-    <t>ej placerbar</t>
-  </si>
-  <si>
-    <t>Antal</t>
+    <t>Bndpass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +193,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -511,6 +572,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -561,19 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -588,15 +660,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -695,7 +769,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -892,7 +965,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1019,7 +1091,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1454,7 +1525,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1687,7 +1757,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1854,7 +1923,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1882,7 +1950,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2064,11 +2131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71110016"/>
-        <c:axId val="73077504"/>
+        <c:axId val="109839872"/>
+        <c:axId val="109841792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71110016"/>
+        <c:axId val="109839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73077504"/>
+        <c:crossAx val="109841792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2119,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73077504"/>
+        <c:axId val="109841792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71110016"/>
+        <c:crossAx val="109839872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2191,6 +2258,568 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Slagljud - Intervall testarna valde med 4 bandpassfiltret och hur nära rätt det blev </a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0283598065410572E-2"/>
+          <c:y val="0.18852979861766048"/>
+          <c:w val="0.7259964997802173"/>
+          <c:h val="0.60957040374139815"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RÄTT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$130:$R$134</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500-1000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000-2000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-4000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000-8000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500-4000 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$S$130:$S$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ett steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$130:$R$134</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500-1000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000-2000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-4000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000-8000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500-4000 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$T$130:$T$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Två steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$130:$R$134</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500-1000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000-2000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-4000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000-8000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500-4000 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$U$130:$U$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tre steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$130:$R$134</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500-1000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000-2000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-4000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000-8000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500-4000 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$V$130:$V$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fyra steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$130:$R$134</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500-1000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000-2000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000-4000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000-8000 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500-4000 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$W$130:$W$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="112666880"/>
+        <c:axId val="112673152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112666880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1600" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Frekvensintervall för filtret</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32615032904317154"/>
+              <c:y val="0.87999708563255197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112673152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112673152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Antal</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112666880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82386703805665717"/>
+          <c:y val="0.17174083152858347"/>
+          <c:w val="0.17093815604024351"/>
+          <c:h val="0.44793511878190267"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2240,7 +2869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2283,7 +2911,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2513,7 +3140,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2574,7 +3200,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2708,7 +3333,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2905,7 +3529,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2999,7 +3622,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3196,7 +3818,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3457,11 +4078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82809600"/>
-        <c:axId val="83149568"/>
+        <c:axId val="111627648"/>
+        <c:axId val="111654400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82809600"/>
+        <c:axId val="111627648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +4132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83149568"/>
+        <c:crossAx val="111654400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3519,7 +4140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83149568"/>
+        <c:axId val="111654400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +4177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82809600"/>
+        <c:crossAx val="111627648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -3564,7 +4185,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3668,7 +4288,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3696,7 +4315,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3724,7 +4342,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3852,7 +4469,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4016,7 +4632,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4077,7 +4692,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4172,7 +4786,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4233,7 +4846,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4261,7 +4873,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4392,7 +5003,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4617,11 +5227,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76169600"/>
-        <c:axId val="76171520"/>
+        <c:axId val="112006272"/>
+        <c:axId val="112008192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76169600"/>
+        <c:axId val="112006272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +5276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76171520"/>
+        <c:crossAx val="112008192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4674,7 +5284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76171520"/>
+        <c:axId val="112008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4697,14 +5307,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76169600"/>
+        <c:crossAx val="112006272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -4712,7 +5321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4766,7 +5374,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4842,7 +5449,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4870,7 +5476,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4898,7 +5503,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4996,7 +5600,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5057,7 +5660,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5356,7 +5958,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5457,7 +6058,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5518,7 +6118,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5546,7 +6145,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5713,7 +6311,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5741,7 +6338,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5769,7 +6365,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5985,11 +6580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76260480"/>
-        <c:axId val="76262400"/>
+        <c:axId val="112097920"/>
+        <c:axId val="112141056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76260480"/>
+        <c:axId val="112097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6022,14 +6617,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76262400"/>
+        <c:crossAx val="112141056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6037,7 +6631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76262400"/>
+        <c:axId val="112141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6074,7 +6668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76260480"/>
+        <c:crossAx val="112097920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -6082,7 +6676,3080 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Bandspärrfilter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> - Test 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.754329854777361E-2"/>
+          <c:y val="0.10896952845231264"/>
+          <c:w val="0.78453713304124406"/>
+          <c:h val="0.51676287184311942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Position 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$79:$Y$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$81:$Y$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Position 2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$79:$Y$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$82:$Y$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Position 3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$79:$Y$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$83:$Y$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Position 4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$79:$Y$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$84:$Y$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Position 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$79:$Y$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$85:$Y$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="112182016"/>
+        <c:axId val="112183936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112182016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Val av frekvensband</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39765053843106113"/>
+              <c:y val="0.90011785895594021"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112183936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112183936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Antal</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.9365233370642798E-4"/>
+              <c:y val="0.35708150498554053"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112182016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85262519215137844"/>
+          <c:y val="0.21491984958869254"/>
+          <c:w val="0.13383000026693143"/>
+          <c:h val="0.38556640851915136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Bandpassfilter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> - Test 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1114408737110931"/>
+          <c:y val="0.12381415264229377"/>
+          <c:w val="0.76033427141350485"/>
+          <c:h val="0.51109020722818643"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Position 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.6514716195733322E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.7371863779011739E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$87:$Y$88</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$89:$Y$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Position 2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2104302473647739E-5"/>
+                  <c:y val="-8.0364547453038414E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.6478227649123216E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$87:$Y$88</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$90:$Y$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Position 3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.356092176613147E-7"/>
+                  <c:y val="-7.6361799647114634E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7296193638923027E-3"/>
+                  <c:y val="-8.0362375054094277E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.8158404478397107E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.0705739575404676E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$87:$Y$88</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$91:$Y$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Position 4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.356092176613147E-7"/>
+                  <c:y val="-1.3814842929933386E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7296193638923027E-3"/>
+                  <c:y val="-1.8575102794317225E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.636273166882314E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$87:$Y$88</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$92:$Y$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Position 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.3063437284337487E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7296193638923027E-3"/>
+                  <c:y val="-1.7094397572879182E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.9471171493979758E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$N$87:$Y$88</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>200-400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>400-800 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>800-1600 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1600-3200 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3200-6400 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6400-12800 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$N$93:$Y$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="112316800"/>
+        <c:axId val="112318720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112316800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Val av frekvensband</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112318720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112318720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Antal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112316800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89080095812741333"/>
+          <c:y val="0.17030372336427321"/>
+          <c:w val="9.8399540013533807E-2"/>
+          <c:h val="0.27991566439519261"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>4 Bandpass</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t>filter - Test 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Position 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$O$96:$W$97</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>500-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$98:$W$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Position 2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$O$96:$W$97</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>500-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$99:$W$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Position 3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$O$96:$W$97</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>500-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$100:$W$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Position 4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$O$96:$W$97</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>500-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$101:$W$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Position 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$O$96:$W$97</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>500-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>500-1000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1000-2000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2000-4000 Hz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4000-8000 Hz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RÄTT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$102:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="112394624"/>
+        <c:axId val="112396544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112394624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Val av frekvensband</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112396544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112396544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Antal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112394624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="2000"/>
+              <a:t>Slagljud</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="2000" baseline="0"/>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="2000"/>
+              <a:t>Intervall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="2000" baseline="0"/>
+              <a:t> testarna valde med bandpassfiltret och hur nära rätt det blev </a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1155942340188117E-2"/>
+          <c:y val="0.17178839288448319"/>
+          <c:w val="0.73401078126816321"/>
+          <c:h val="0.59227290437639968"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RÄTT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6064259060083997E-3"/>
+                  <c:y val="1.072797096690062E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$110:$R$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$S$110:$S$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ett steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6064259060083997E-3"/>
+                  <c:y val="8.0459782251754638E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$110:$R$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$T$110:$T$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Två steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$110:$R$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$U$110:$U$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tre steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$110:$R$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$V$110:$V$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fyra steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$110:$R$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$W$110:$W$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="112456064"/>
+        <c:axId val="112457984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112456064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400"/>
+                  <a:t>Frekvensintervall för filtret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112457984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112457984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400"/>
+                  <a:t>Antal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112456064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82877852312185285"/>
+          <c:y val="0.17047991831537068"/>
+          <c:w val="0.16832696311454118"/>
+          <c:h val="0.35905272861084392"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Slagljud - Intervall testarna valde med bandspärrfiltret och hur nära rätt det blev </a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4657068236218191E-2"/>
+          <c:y val="1.9398252673478531E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6419530397862094E-2"/>
+          <c:y val="0.17697549981018146"/>
+          <c:w val="0.70858543307086619"/>
+          <c:h val="0.59629086945596588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RÄTT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$120:$R$125</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$S$120:$S$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ett steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$120:$R$125</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$T$120:$T$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Två steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$120:$R$125</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$U$120:$U$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tre steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$120:$R$125</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$V$120:$V$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Fyra steg från rätt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$R$120:$R$125</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200-400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400-800 Hz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800-1600 Hz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600-3200 Hz</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200-6400 Hz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400-12800 Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$W$120:$W$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="112591232"/>
+        <c:axId val="112593152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112591232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400"/>
+                  <a:t>Frekvensintervall för filtret</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112593152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112593152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1400"/>
+                  <a:t>Antal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112591232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80185063981986859"/>
+          <c:y val="0.17692024031354328"/>
+          <c:w val="0.19287629060453873"/>
+          <c:h val="0.3560904558799694"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6101,14 +9768,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>468405</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -6161,16 +9828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47307</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>423167</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>37564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6192,15 +9859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>243728</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>189380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>601196</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>189380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6219,6 +9886,235 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>117325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>35617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>139149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27456</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>50331</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552766</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>554934</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>421820</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>97969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagram 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>155120</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="textruta 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16728621" y="33560656"/>
+          <a:ext cx="914400" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6509,16 +10405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AS102"/>
+  <dimension ref="B5:AS172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ78" sqref="AJ78"/>
+    <sheetView tabSelected="1" topLeftCell="J120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X128" sqref="X127:X128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
@@ -7626,7 +11528,7 @@
       <c r="AA78" t="s">
         <v>22</v>
       </c>
-      <c r="AI78" s="55"/>
+      <c r="AI78" s="49"/>
       <c r="AJ78" s="10"/>
       <c r="AK78" s="10"/>
       <c r="AL78" s="10"/>
@@ -7635,12 +11537,12 @@
       <c r="AO78" s="10"/>
       <c r="AP78" s="10"/>
       <c r="AQ78" s="10"/>
-      <c r="AR78" s="56"/>
-      <c r="AS78" s="56"/>
+      <c r="AR78" s="50"/>
+      <c r="AS78" s="50"/>
     </row>
     <row r="79" spans="4:45" ht="45" x14ac:dyDescent="0.25">
       <c r="D79" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -7650,6 +11552,9 @@
       <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="20"/>
+      <c r="M79" t="s">
+        <v>48</v>
+      </c>
       <c r="N79" s="30" t="s">
         <v>19</v>
       </c>
@@ -7677,7 +11582,7 @@
         <v>12</v>
       </c>
       <c r="AK79" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AL79" s="11"/>
       <c r="AM79" s="11">
@@ -7696,10 +11601,10 @@
         <v>5</v>
       </c>
       <c r="AR79" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AS79" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="4:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7726,41 +11631,41 @@
         <v>23</v>
       </c>
       <c r="L80" s="34"/>
-      <c r="N80" s="35">
-        <v>1</v>
-      </c>
-      <c r="O80" s="36">
-        <v>2</v>
-      </c>
-      <c r="P80" s="37">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="38">
-        <v>4</v>
-      </c>
-      <c r="R80" s="28">
-        <v>5</v>
-      </c>
-      <c r="S80" s="39">
-        <v>6</v>
-      </c>
-      <c r="T80" s="35">
-        <v>1</v>
-      </c>
-      <c r="U80" s="37">
-        <v>2</v>
-      </c>
-      <c r="V80" s="37">
-        <v>3</v>
-      </c>
-      <c r="W80" s="38">
-        <v>4</v>
-      </c>
-      <c r="X80" s="28">
-        <v>5</v>
-      </c>
-      <c r="Y80" s="39">
-        <v>6</v>
+      <c r="N80" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q80" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="S80" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="T80" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U80" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="V80" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="W80" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="X80" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y80" s="52" t="s">
+        <v>33</v>
       </c>
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
@@ -7811,19 +11716,19 @@
       <c r="M81">
         <v>1</v>
       </c>
-      <c r="N81" s="40">
+      <c r="N81" s="35">
         <v>2</v>
       </c>
-      <c r="O81" s="41">
+      <c r="O81" s="36">
         <v>4</v>
       </c>
-      <c r="P81" s="42">
+      <c r="P81" s="37">
         <v>1</v>
       </c>
       <c r="Q81" s="28"/>
       <c r="R81" s="28"/>
       <c r="S81" s="25"/>
-      <c r="T81" s="43">
+      <c r="T81" s="38">
         <v>1</v>
       </c>
       <c r="U81" s="28"/>
@@ -7896,25 +11801,25 @@
       <c r="M82" s="5">
         <v>2</v>
       </c>
-      <c r="N82" s="44"/>
-      <c r="O82" s="45">
+      <c r="N82" s="39"/>
+      <c r="O82" s="40">
         <v>1</v>
       </c>
-      <c r="P82" s="46">
+      <c r="P82" s="41">
         <v>1</v>
       </c>
-      <c r="Q82" s="47">
+      <c r="Q82" s="42">
         <v>3</v>
       </c>
-      <c r="R82" s="47"/>
+      <c r="R82" s="42"/>
       <c r="S82" s="17"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47">
+      <c r="T82" s="43"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="42">
         <v>1</v>
       </c>
-      <c r="W82" s="47"/>
-      <c r="X82" s="47"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="5">
         <v>5</v>
@@ -7977,8 +11882,8 @@
       <c r="M83" s="5">
         <v>3</v>
       </c>
-      <c r="N83" s="40"/>
-      <c r="O83" s="49">
+      <c r="N83" s="35"/>
+      <c r="O83" s="44">
         <v>3</v>
       </c>
       <c r="P83" s="28"/>
@@ -7987,7 +11892,7 @@
       </c>
       <c r="R83" s="28"/>
       <c r="S83" s="25"/>
-      <c r="T83" s="43">
+      <c r="T83" s="38">
         <v>2</v>
       </c>
       <c r="U83" s="28">
@@ -8064,23 +11969,23 @@
       <c r="M84" s="5">
         <v>4</v>
       </c>
-      <c r="N84" s="44"/>
-      <c r="O84" s="50">
+      <c r="N84" s="39"/>
+      <c r="O84" s="45">
         <v>1</v>
       </c>
-      <c r="P84" s="46">
+      <c r="P84" s="41">
         <v>2</v>
       </c>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="47"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
       <c r="S84" s="17"/>
-      <c r="T84" s="48"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="47">
+      <c r="T84" s="43"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42">
         <v>1</v>
       </c>
-      <c r="W84" s="47"/>
-      <c r="X84" s="47"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
       <c r="Y84" s="17"/>
       <c r="Z84">
         <v>3</v>
@@ -8139,19 +12044,19 @@
       <c r="M85" s="5">
         <v>5</v>
       </c>
-      <c r="N85" s="44">
+      <c r="N85" s="39">
         <v>1</v>
       </c>
-      <c r="O85" s="45"/>
-      <c r="P85" s="47">
+      <c r="O85" s="40"/>
+      <c r="P85" s="42">
         <v>2</v>
       </c>
-      <c r="Q85" s="47">
+      <c r="Q85" s="42">
         <v>1</v>
       </c>
-      <c r="R85" s="47"/>
+      <c r="R85" s="42"/>
       <c r="S85" s="17"/>
-      <c r="T85" s="43"/>
+      <c r="T85" s="38"/>
       <c r="U85" s="28"/>
       <c r="V85" s="28"/>
       <c r="W85" s="28"/>
@@ -8191,7 +12096,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="4:45" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -8201,8 +12106,11 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
+      <c r="M87" t="s">
+        <v>49</v>
+      </c>
       <c r="N87" s="30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O87" s="31"/>
       <c r="P87" s="31"/>
@@ -8210,7 +12118,7 @@
       <c r="R87" s="32"/>
       <c r="S87" s="33"/>
       <c r="T87" s="30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U87" s="31"/>
       <c r="V87" s="31"/>
@@ -8226,49 +12134,49 @@
     </row>
     <row r="88" spans="4:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="N88" s="35">
-        <v>1</v>
-      </c>
-      <c r="O88" s="37">
-        <v>2</v>
-      </c>
-      <c r="P88" s="36">
-        <v>3</v>
-      </c>
-      <c r="Q88" s="52">
-        <v>4</v>
-      </c>
-      <c r="R88" s="41">
-        <v>5</v>
-      </c>
-      <c r="S88" s="39">
-        <v>6</v>
-      </c>
-      <c r="T88" s="35">
-        <v>1</v>
-      </c>
-      <c r="U88" s="36">
-        <v>2</v>
-      </c>
-      <c r="V88" s="36">
-        <v>3</v>
-      </c>
-      <c r="W88" s="52">
-        <v>4</v>
-      </c>
-      <c r="X88" s="41">
-        <v>5</v>
-      </c>
-      <c r="Y88" s="39">
-        <v>6</v>
+      <c r="N88" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O88" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P88" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q88" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="R88" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="S88" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="T88" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U88" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="V88" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="W88" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="X88" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y88" s="52" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="4:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8280,28 +12188,28 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="4">
+      <c r="M89" s="4">
         <v>1</v>
       </c>
-      <c r="N89" s="43"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41">
+      <c r="N89" s="38"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36">
         <v>1</v>
       </c>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41">
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36">
         <v>3</v>
       </c>
       <c r="S89" s="25">
         <v>9</v>
       </c>
-      <c r="T89" s="48"/>
-      <c r="U89" s="41">
+      <c r="T89" s="43"/>
+      <c r="U89" s="36">
         <v>2</v>
       </c>
-      <c r="V89" s="41"/>
-      <c r="W89" s="45"/>
-      <c r="X89" s="41"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="36"/>
       <c r="Y89" s="25">
         <v>2</v>
       </c>
@@ -8321,26 +12229,26 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="4">
+      <c r="M90" s="4">
         <v>2</v>
       </c>
-      <c r="N90" s="48"/>
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="45">
+      <c r="N90" s="43"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40">
         <v>3</v>
       </c>
       <c r="S90" s="17">
         <v>9</v>
       </c>
-      <c r="T90" s="48"/>
-      <c r="U90" s="45"/>
-      <c r="V90" s="45">
+      <c r="T90" s="43"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40">
         <v>3</v>
       </c>
-      <c r="W90" s="45"/>
-      <c r="X90" s="45">
+      <c r="W90" s="40"/>
+      <c r="X90" s="40">
         <v>2</v>
       </c>
       <c r="Y90" s="17">
@@ -8362,28 +12270,28 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="5">
+      <c r="M91" s="5">
         <v>3</v>
       </c>
-      <c r="N91" s="43"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41">
+      <c r="N91" s="38"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36">
         <v>1</v>
       </c>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41">
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36">
         <v>3</v>
       </c>
       <c r="S91" s="25">
         <v>4</v>
       </c>
-      <c r="T91" s="43"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41">
+      <c r="T91" s="38"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36">
         <v>2</v>
       </c>
-      <c r="W91" s="41"/>
-      <c r="X91" s="41">
+      <c r="W91" s="36"/>
+      <c r="X91" s="36">
         <v>1</v>
       </c>
       <c r="Y91" s="25">
@@ -8405,26 +12313,26 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="5">
+      <c r="M92" s="5">
         <v>4</v>
       </c>
-      <c r="N92" s="48"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="50">
+      <c r="N92" s="43"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="45">
         <v>1</v>
       </c>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45">
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40">
         <v>4</v>
       </c>
       <c r="S92" s="17">
         <v>3</v>
       </c>
-      <c r="T92" s="48"/>
-      <c r="U92" s="45"/>
-      <c r="V92" s="45"/>
-      <c r="W92" s="45"/>
-      <c r="X92" s="45">
+      <c r="T92" s="43"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40">
         <v>2</v>
       </c>
       <c r="Y92" s="17">
@@ -8446,26 +12354,26 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="5">
+      <c r="M93" s="5">
         <v>5</v>
       </c>
-      <c r="N93" s="43"/>
-      <c r="O93" s="45"/>
-      <c r="P93" s="41">
+      <c r="N93" s="38"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="36">
         <v>1</v>
       </c>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41">
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36">
         <v>2</v>
       </c>
       <c r="S93" s="25">
         <v>13</v>
       </c>
-      <c r="T93" s="43"/>
-      <c r="U93" s="41"/>
-      <c r="V93" s="41"/>
-      <c r="W93" s="41"/>
-      <c r="X93" s="41"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="36"/>
       <c r="Y93" s="25">
         <v>3</v>
       </c>
@@ -8512,25 +12420,25 @@
       <c r="U95" s="23"/>
       <c r="V95" s="23"/>
     </row>
-    <row r="96" spans="4:45" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D96" s="4"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="51"/>
+      <c r="L96" s="46"/>
       <c r="O96" s="30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P96" s="32"/>
       <c r="Q96" s="31"/>
       <c r="R96" s="31"/>
       <c r="S96" s="33"/>
       <c r="T96" s="30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U96" s="32"/>
       <c r="V96" s="31"/>
@@ -8542,7 +12450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -8552,36 +12460,36 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-      <c r="O97" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" s="42" t="s">
-        <v>29</v>
+      <c r="O97" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P97" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="Q97" s="28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R97" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="S97" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="T97" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="U97" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="V97" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="W97" s="25" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="S97" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="T97" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="U97" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="V97" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W97" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -8590,10 +12498,10 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4">
+      <c r="N98" s="4">
         <v>1</v>
       </c>
-      <c r="O98" s="43"/>
+      <c r="O98" s="38"/>
       <c r="P98" s="28"/>
       <c r="Q98" s="28"/>
       <c r="R98" s="28">
@@ -8602,15 +12510,19 @@
       <c r="S98" s="25">
         <v>1</v>
       </c>
-      <c r="T98" s="43"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="41"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
       <c r="W98" s="25"/>
       <c r="Y98">
         <v>2</v>
       </c>
+      <c r="AE98">
+        <f>SUM(AA81:AA84,Z89:Z93,X99,X101)</f>
+        <v>48</v>
+      </c>
     </row>
-    <row r="99" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -8619,21 +12531,21 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="4">
+      <c r="N99" s="4">
         <v>2</v>
       </c>
-      <c r="O99" s="48">
+      <c r="O99" s="43">
         <v>1</v>
       </c>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="47"/>
-      <c r="R99" s="47"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="42"/>
       <c r="S99" s="17"/>
-      <c r="T99" s="48">
+      <c r="T99" s="43">
         <v>1</v>
       </c>
-      <c r="U99" s="45"/>
-      <c r="V99" s="45"/>
+      <c r="U99" s="40"/>
+      <c r="V99" s="40"/>
       <c r="W99" s="17"/>
       <c r="X99">
         <v>1</v>
@@ -8642,7 +12554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -8651,20 +12563,20 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="4">
+      <c r="N100" s="4">
         <v>3</v>
       </c>
-      <c r="O100" s="43"/>
+      <c r="O100" s="38"/>
       <c r="P100" s="28"/>
       <c r="Q100" s="28"/>
       <c r="R100" s="28"/>
       <c r="S100" s="25"/>
-      <c r="T100" s="43"/>
-      <c r="U100" s="41"/>
-      <c r="V100" s="41"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
       <c r="W100" s="25"/>
     </row>
-    <row r="101" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -8673,23 +12585,23 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="5">
+      <c r="N101" s="5">
         <v>4</v>
       </c>
-      <c r="O101" s="48">
+      <c r="O101" s="43">
         <v>1</v>
       </c>
-      <c r="P101" s="47"/>
-      <c r="Q101" s="47"/>
-      <c r="R101" s="47">
+      <c r="P101" s="42"/>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="42">
         <v>1</v>
       </c>
       <c r="S101" s="17"/>
-      <c r="T101" s="48">
+      <c r="T101" s="43">
         <v>1</v>
       </c>
-      <c r="U101" s="45"/>
-      <c r="V101" s="45"/>
+      <c r="U101" s="40"/>
+      <c r="V101" s="40"/>
       <c r="W101" s="17"/>
       <c r="X101">
         <v>1</v>
@@ -8698,7 +12610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -8707,22 +12619,473 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="5">
+      <c r="N102" s="5">
         <v>5</v>
       </c>
-      <c r="O102" s="43">
+      <c r="O102" s="38">
         <v>2</v>
       </c>
       <c r="P102" s="28"/>
       <c r="Q102" s="28"/>
       <c r="R102" s="28"/>
       <c r="S102" s="25"/>
-      <c r="T102" s="43"/>
-      <c r="U102" s="41"/>
-      <c r="V102" s="41"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="36"/>
+      <c r="V102" s="36"/>
       <c r="W102" s="25"/>
       <c r="Y102">
         <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="R108" s="49"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="6"/>
+    </row>
+    <row r="109" spans="4:31" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="R109" s="55"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>2</v>
+      </c>
+      <c r="R111" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="W111" s="1"/>
+      <c r="AE111">
+        <f>SUM(T110:T113,U110,T115,T120,T122,U122,T124,T125,U125,T130)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>3</v>
+      </c>
+      <c r="R112" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="S114">
+        <v>15</v>
+      </c>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="17:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q115">
+        <v>6</v>
+      </c>
+      <c r="R115" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="S115" s="3">
+        <v>38</v>
+      </c>
+      <c r="T115" s="3">
+        <v>5</v>
+      </c>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="53"/>
+    </row>
+    <row r="118" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="R118" s="49"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="6"/>
+    </row>
+    <row r="119" spans="17:30" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="R119" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="S119" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T119" s="4">
+        <v>1</v>
+      </c>
+      <c r="U119" s="4">
+        <v>2</v>
+      </c>
+      <c r="V119" s="4">
+        <v>3</v>
+      </c>
+      <c r="W119" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+    </row>
+    <row r="120" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="S120" s="4">
+        <v>3</v>
+      </c>
+      <c r="T120" s="4">
+        <v>1</v>
+      </c>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="1"/>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4"/>
+    </row>
+    <row r="121" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="S121" s="4">
+        <v>9</v>
+      </c>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="1"/>
+      <c r="AA121" s="4"/>
+      <c r="AB121" s="4"/>
+      <c r="AC121" s="4"/>
+      <c r="AD121" s="4"/>
+    </row>
+    <row r="122" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="S122" s="4">
+        <v>6</v>
+      </c>
+      <c r="T122" s="4">
+        <v>2</v>
+      </c>
+      <c r="U122" s="4">
+        <v>1</v>
+      </c>
+      <c r="V122" s="4"/>
+      <c r="W122" s="1"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="4"/>
+    </row>
+    <row r="123" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="S123" s="5">
+        <v>5</v>
+      </c>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="1"/>
+      <c r="AA123" s="4"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="4"/>
+      <c r="AD123" s="4"/>
+    </row>
+    <row r="124" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4">
+        <v>6</v>
+      </c>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="1"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+      <c r="AD124" s="3"/>
+    </row>
+    <row r="125" spans="17:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q125">
+        <v>6</v>
+      </c>
+      <c r="R125" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3">
+        <v>18</v>
+      </c>
+      <c r="U125" s="3">
+        <v>5</v>
+      </c>
+      <c r="V125" s="3"/>
+      <c r="W125" s="53"/>
+    </row>
+    <row r="128" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="R128" s="49"/>
+      <c r="S128" s="10"/>
+      <c r="T128" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+      <c r="W128" s="6"/>
+    </row>
+    <row r="129" spans="17:23" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="R129" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="S129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T129" s="4">
+        <v>1</v>
+      </c>
+      <c r="U129" s="4">
+        <v>2</v>
+      </c>
+      <c r="V129" s="4">
+        <v>3</v>
+      </c>
+      <c r="W129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="17:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q130" t="s">
+        <v>42</v>
+      </c>
+      <c r="R130" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="S130" s="4">
+        <v>4</v>
+      </c>
+      <c r="T130" s="4">
+        <v>1</v>
+      </c>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="17:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q131" t="s">
+        <v>43</v>
+      </c>
+      <c r="R131" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="17:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q132" t="s">
+        <v>44</v>
+      </c>
+      <c r="R132" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="17:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q133" t="s">
+        <v>45</v>
+      </c>
+      <c r="R133" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="S133" s="4">
+        <v>2</v>
+      </c>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="R134" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S134" s="5">
+        <v>1</v>
+      </c>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+    </row>
+    <row r="166" spans="20:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="T166" s="56">
+        <v>1</v>
+      </c>
+      <c r="U166" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V166" s="56">
+        <v>2</v>
+      </c>
+      <c r="W166" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T167" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U167" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V167" s="9">
+        <v>1</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T168" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U168" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V168" s="9">
+        <v>2</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T169" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U169" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V169" s="9">
+        <v>3</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T170" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V170" s="9">
+        <v>4</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="V171" s="9">
+        <v>5</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="V172" s="2">
+        <v>6</v>
+      </c>
+      <c r="W172" s="53" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
